--- a/src/SigDial2014/Errors.xlsx
+++ b/src/SigDial2014/Errors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Errors</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>ASR</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Dev</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,23 +383,34 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>3333</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1">
+        <v>3364</v>
+      </c>
+      <c r="D2" s="1">
         <v>788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1707</v>
       </c>
     </row>
   </sheetData>
